--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Maciek\Uczelnia\praca\przedmioty\Integrated Energy Resource Planning\2025_2026\winter\ELAND_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Studia\MGR sem.2\Integrated Energy Resource Planning\Model_01\ELAND_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1B0D5-4329-446D-B495-DE0BE30CF656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134725A-8A76-4C1A-AF06-6BCE1F02EABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -1913,6 +1913,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1921,15 +1930,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3345,14 +3345,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
-  <dimension ref="A1"/>
+  <dimension ref="O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3571,65 +3577,65 @@
       <c r="L11" s="32"/>
     </row>
     <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="111"/>
+      <c r="E15" s="108"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="107"/>
+      <c r="E17" s="110"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="111"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="107"/>
+      <c r="E19" s="110"/>
     </row>
     <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="106"/>
+      <c r="E20" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3905,11 +3911,11 @@
       <c r="L14" s="32"/>
     </row>
     <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
     </row>
     <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="24" t="s">
@@ -4504,7 +4510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4607,6 +4613,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4801,27 +4827,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4838,23 +4863,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Studia\MGR sem.2\Integrated Energy Resource Planning\Model_01\ELAND_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D134725A-8A76-4C1A-AF06-6BCE1F02EABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227EF8B6-8766-44B9-8FCB-81E88A879C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1033,6 +1033,24 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>BIOMASS</t>
+  </si>
+  <si>
+    <t>Biomass Fuel</t>
+  </si>
+  <si>
+    <t>IMP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Import of Biomass</t>
+  </si>
+  <si>
+    <t>NEW_PP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Power Plant - Biomass</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1205,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1236,8 +1254,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1304,43 +1328,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1553,47 +1540,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1717,6 +1663,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1724,7 +1701,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1752,177 +1729,156 @@
     <xf numFmtId="164" fontId="18" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1931,10 +1887,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,9 +1902,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
@@ -3071,7 +3055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4117804-2E85-47EE-BA5B-568C5E98E06A}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3091,16 +3077,16 @@
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F3" s="9"/>
@@ -3347,7 +3333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
   <dimension ref="O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -3366,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3403,249 +3389,272 @@
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="33"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="34"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="29"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="K7" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="112"/>
+      <c r="I8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="34"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="110"/>
+      <c r="E9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
+      <c r="H9" s="110"/>
+      <c r="I9" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
       <c r="C10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="109"/>
+      <c r="I10" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
+      <c r="J10" s="109"/>
+      <c r="K10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="106" t="s">
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="24"/>
+      <c r="C11" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="103" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D16" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="108"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="100" t="s">
+      <c r="E16" s="95"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D17" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="111"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="101" t="s">
+      <c r="E17" s="98"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D18" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="110"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="100" t="s">
+      <c r="E18" s="97"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D19" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="111"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="101" t="s">
+      <c r="E19" s="98"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D20" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="110"/>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="102" t="s">
+      <c r="E20" s="97"/>
+    </row>
+    <row r="21" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D21" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="109"/>
+      <c r="E21" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3654,10 +3663,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3665,7 +3674,7 @@
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" customWidth="1"/>
     <col min="12" max="12" width="3.33203125" customWidth="1"/>
@@ -3680,346 +3689,394 @@
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="33"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="34"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="34"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="34"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="120"/>
+      <c r="E9" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="45" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="24"/>
+      <c r="C12" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="24"/>
+      <c r="C13" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="120"/>
+      <c r="E13" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29"/>
-      <c r="C13" s="51" t="s">
+      <c r="J13" s="120"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="24"/>
+      <c r="C15" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G15" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H15" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I15" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="106" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="19" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+    </row>
+    <row r="20" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D20" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="114"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="104" t="s">
+      <c r="E20" s="101"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D21" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="117"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="101" t="s">
+      <c r="E21" s="104"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D22" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="115"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="100" t="s">
+      <c r="E22" s="102"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D23" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="116"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="101" t="s">
+      <c r="E23" s="103"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D24" s="102" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="115"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="100" t="s">
+      <c r="E24" s="102"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D25" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="116"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="101" t="s">
+      <c r="E25" s="103"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D26" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="115"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="100" t="s">
+      <c r="E26" s="102"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D27" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="116"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="101" t="s">
+      <c r="E27" s="103"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D28" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="115"/>
-    </row>
-    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="102" t="s">
+      <c r="E28" s="102"/>
+    </row>
+    <row r="29" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D29" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E29" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4028,10 +4085,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
-  <dimension ref="B2:H11"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4055,28 +4112,28 @@
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="65" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="34"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4088,14 +4145,14 @@
       <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4107,74 +4164,94 @@
       <c r="F7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="70" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
+      <c r="B9" s="24"/>
+      <c r="C9" s="122" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
-      <c r="D9" s="11" t="str">
+      <c r="D9" s="123" t="str">
         <f>FI_Process!F9</f>
         <v>Import of Fuel Oil</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="123" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="73">
+      <c r="F9" s="123"/>
+      <c r="G9" s="124">
         <v>30</v>
       </c>
-      <c r="H9" s="34"/>
-    </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="61" t="str">
         <f>FI_Process!E10</f>
+        <v>IMP_BIOMASS</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f>FI_Process!F10</f>
+        <v>Import of Biomass</v>
+      </c>
+      <c r="E10" s="11" t="str">
+        <f>FI_Comm!E11</f>
+        <v>BIOMASS</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="62">
+        <v>15</v>
+      </c>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="24"/>
+      <c r="C11" s="63" t="str">
+        <f>FI_Process!E11</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
-        <f>FI_Process!F10</f>
+      <c r="D11" s="64" t="str">
+        <f>FI_Process!F11</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E11" s="64" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76">
+      <c r="F11" s="64"/>
+      <c r="G11" s="65">
         <v>20</v>
       </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4187,16 +4264,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
   <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
@@ -4222,38 +4299,38 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="33"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="65" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="34"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="55" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -4280,17 +4357,17 @@
       <c r="K6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="34"/>
+      <c r="M6" s="29"/>
       <c r="O6" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4317,10 +4394,10 @@
       <c r="K7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="29"/>
       <c r="O7" s="10" t="s">
         <v>131</v>
       </c>
@@ -4328,149 +4405,187 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="80" t="s">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="24"/>
+      <c r="C8" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="O8" s="86" t="s">
+      <c r="M8" s="29"/>
+      <c r="O8" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="P8" s="86" t="s">
+      <c r="P8" s="73" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="72" t="str">
-        <f>FI_Process!E12</f>
+      <c r="B9" s="24"/>
+      <c r="C9" s="111" t="str">
+        <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
-      <c r="D9" s="11" t="str">
-        <f>FI_Process!F12</f>
+      <c r="D9" s="112" t="str">
+        <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
-      <c r="E9" s="11" t="str">
+      <c r="E9" s="112" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="11" t="str">
+      <c r="F9" s="112" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="112">
         <v>4</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="112">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="112">
         <v>0.4</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="112">
         <v>0.8</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="112">
         <v>1</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="113">
         <v>1</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="O9" s="85">
+      <c r="M9" s="29"/>
+      <c r="O9" s="72">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="72">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
-        <f>FI_Process!E13</f>
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="114" t="str">
+        <f>FI_Process!E15</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
-        <f>FI_Process!F13</f>
+      <c r="D10" s="110" t="str">
+        <f>FI_Process!F15</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="110" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75" t="str">
+      <c r="F10" s="110" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="110">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="110">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="110">
         <v>0.6</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="110">
         <v>0.5</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="110">
         <v>1</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="115">
         <v>1</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="O10" s="98">
+      <c r="M10" s="29"/>
+      <c r="O10" s="85">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="85">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="O11" s="99">
+      <c r="B11" s="24"/>
+      <c r="C11" s="69" t="str">
+        <f>FI_Process!E14</f>
+        <v>NEW_PP_BIOMASS</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f>FI_Process!F14</f>
+        <v>Power Plant - Biomass</v>
+      </c>
+      <c r="E11" s="13" t="str">
+        <f>FI_Comm!E11</f>
+        <v>BIOMASS</v>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f>FI_Comm!E10</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="70">
+        <v>1</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="O11" s="86">
         <f>SUM(O9:O10)</f>
         <v>132.45120000000003</v>
       </c>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" s="9" t="s">
@@ -4511,7 +4626,7 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4534,78 +4649,78 @@
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="90" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="84"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="29"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="74">
         <v>2025</v>
       </c>
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="95" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29"/>
-      <c r="C9" s="82" t="str">
+      <c r="B9" s="24"/>
+      <c r="C9" s="69" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="70">
         <v>100</v>
       </c>
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4613,6 +4728,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -4621,15 +4745,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4828,20 +4943,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Studia\MGR sem.2\Integrated Energy Resource Planning\Model_01\ELAND_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227EF8B6-8766-44B9-8FCB-81E88A879C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C880F54B-80AE-4966-BA26-57350AFBE9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,10 +1047,10 @@
     <t>Import of Biomass</t>
   </si>
   <si>
-    <t>NEW_PP_BIOMASS</t>
-  </si>
-  <si>
     <t>Power Plant - Biomass</t>
+  </si>
+  <si>
+    <t>EX_PP_BIOMASS</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1701,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1866,45 +1866,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1917,8 +1878,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1933,6 +1893,45 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
@@ -3077,16 +3076,16 @@
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F3" s="9"/>
@@ -3449,79 +3448,79 @@
     </row>
     <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24"/>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="108" t="s">
+      <c r="K7" s="95" t="s">
         <v>60</v>
       </c>
       <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112" t="s">
+      <c r="D8" s="98"/>
+      <c r="E8" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110" t="s">
+      <c r="H9" s="96"/>
+      <c r="I9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="101"/>
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3529,21 +3528,21 @@
       <c r="C10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="109" t="s">
+      <c r="G10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="109"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="62" t="s">
         <v>18</v>
       </c>
@@ -3586,65 +3585,65 @@
       <c r="L12" s="27"/>
     </row>
     <row r="15" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="95"/>
+      <c r="E16" s="114"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="98"/>
+      <c r="E17" s="117"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="97"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="98"/>
+      <c r="E19" s="117"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="97"/>
+      <c r="E20" s="116"/>
     </row>
     <row r="21" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="96"/>
+      <c r="E21" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3666,7 +3665,7 @@
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3795,25 +3794,25 @@
     </row>
     <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="121"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="107"/>
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3881,27 +3880,27 @@
     </row>
     <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120" t="s">
+      <c r="D13" s="106"/>
+      <c r="E13" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="120" t="s">
+      <c r="H13" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="120" t="s">
+      <c r="I13" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="120"/>
-      <c r="K13" s="121"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
       <c r="L13" s="29"/>
     </row>
     <row r="14" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3911,10 +3910,10 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>58</v>
@@ -3968,101 +3967,101 @@
       <c r="L16" s="27"/>
     </row>
     <row r="19" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
     </row>
     <row r="20" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="101"/>
+      <c r="E20" s="120"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="104"/>
+      <c r="E21" s="123"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="102"/>
+      <c r="E22" s="121"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="103"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="102"/>
+      <c r="E24" s="121"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="103"/>
+      <c r="E25" s="122"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="102"/>
+      <c r="E26" s="121"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="103"/>
+      <c r="E27" s="122"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="102"/>
+      <c r="E28" s="121"/>
     </row>
     <row r="29" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="99"/>
+      <c r="E29" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4186,20 +4185,20 @@
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="C9" s="122" t="str">
+      <c r="C9" s="108" t="str">
         <f>FI_Process!E9</f>
         <v>IMP_OIL</v>
       </c>
-      <c r="D9" s="123" t="str">
+      <c r="D9" s="109" t="str">
         <f>FI_Process!F9</f>
         <v>Import of Fuel Oil</v>
       </c>
-      <c r="E9" s="123" t="str">
+      <c r="E9" s="109" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124">
+      <c r="F9" s="109"/>
+      <c r="G9" s="110">
         <v>30</v>
       </c>
       <c r="H9" s="29"/>
@@ -4264,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
   <dimension ref="B2:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4407,28 +4406,28 @@
     </row>
     <row r="8" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24"/>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117" t="s">
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="117" t="s">
+      <c r="I8" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="117" t="s">
+      <c r="J8" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K8" s="117" t="s">
+      <c r="K8" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="118" t="s">
+      <c r="L8" s="104" t="s">
         <v>77</v>
       </c>
       <c r="M8" s="29"/>
@@ -4441,38 +4440,38 @@
     </row>
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="C9" s="111" t="str">
+      <c r="C9" s="97" t="str">
         <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
-      <c r="D9" s="112" t="str">
+      <c r="D9" s="98" t="str">
         <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
-      <c r="E9" s="112" t="str">
+      <c r="E9" s="98" t="str">
         <f>FI_Comm!E8</f>
         <v>FUEL_OIL</v>
       </c>
-      <c r="F9" s="112" t="str">
+      <c r="F9" s="98" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G9" s="112">
+      <c r="G9" s="98">
         <v>4</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="98">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="112">
+      <c r="I9" s="98">
         <v>0.4</v>
       </c>
-      <c r="J9" s="112">
+      <c r="J9" s="98">
         <v>0.8</v>
       </c>
-      <c r="K9" s="112">
+      <c r="K9" s="98">
         <v>1</v>
       </c>
-      <c r="L9" s="113">
+      <c r="L9" s="99">
         <v>1</v>
       </c>
       <c r="M9" s="29"/>
@@ -4487,38 +4486,38 @@
     </row>
     <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
-      <c r="C10" s="114" t="str">
+      <c r="C10" s="100" t="str">
         <f>FI_Process!E15</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="110" t="str">
+      <c r="D10" s="96" t="str">
         <f>FI_Process!F15</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="110" t="str">
+      <c r="E10" s="96" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="110" t="str">
+      <c r="F10" s="96" t="str">
         <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="110">
+      <c r="G10" s="96">
         <v>2</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="96">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="110">
+      <c r="I10" s="96">
         <v>0.6</v>
       </c>
-      <c r="J10" s="110">
+      <c r="J10" s="96">
         <v>0.5</v>
       </c>
-      <c r="K10" s="110">
+      <c r="K10" s="96">
         <v>1</v>
       </c>
-      <c r="L10" s="115">
+      <c r="L10" s="101">
         <v>1</v>
       </c>
       <c r="M10" s="29"/>
@@ -4535,7 +4534,7 @@
       <c r="B11" s="24"/>
       <c r="C11" s="69" t="str">
         <f>FI_Process!E14</f>
-        <v>NEW_PP_BIOMASS</v>
+        <v>EX_PP_BIOMASS</v>
       </c>
       <c r="D11" s="13" t="str">
         <f>FI_Process!F14</f>
@@ -4728,15 +4727,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -4745,6 +4735,15 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4943,20 +4942,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_ELAND_ALL_V01.xlsx
+++ b/VT_ELAND_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patir\Documents\Studia\MGR sem.2\Integrated Energy Resource Planning\Model_01\ELAND_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C880F54B-80AE-4966-BA26-57350AFBE9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF698D8C-D80C-4AF7-BB57-5162DAE06834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4264,7 +4264,7 @@
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4567,9 +4567,9 @@
         <v>1</v>
       </c>
       <c r="M11" s="29"/>
-      <c r="O11" s="86">
-        <f>SUM(O9:O10)</f>
-        <v>132.45120000000003</v>
+      <c r="O11" s="85">
+        <f>G11*H11*J11</f>
+        <v>22.075199999999999</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4585,6 +4585,12 @@
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
       <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O13" s="86">
+        <f>SUM(O9:O11)</f>
+        <v>154.52640000000002</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" s="9" t="s">
@@ -4727,6 +4733,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
@@ -4735,15 +4750,6 @@
     <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4942,20 +4948,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
